--- a/data/trans_dic/P56$auxiliar-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P56$auxiliar-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.08356943480269752</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.301564811312856</v>
+        <v>0.3015648113128561</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.04399646713067038</v>
@@ -709,37 +709,37 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.04439204397964148</v>
+        <v>0.04395690804948763</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03126388352513344</v>
+        <v>0.03218435353541283</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06225794459795451</v>
+        <v>0.06436348586273523</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01941554193153492</v>
+        <v>0.01836905918239701</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1500999547279404</v>
+        <v>0.1428634508604273</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02140910625691929</v>
+        <v>0.02542254438921806</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.228220125966461</v>
+        <v>0.229766760713611</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0128726379079276</v>
+        <v>0.01285214602990418</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.128169518697129</v>
+        <v>0.1366433315702505</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03942879399394277</v>
+        <v>0.04045671770362043</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2025154063851589</v>
+        <v>0.1993578640950518</v>
       </c>
     </row>
     <row r="6">
@@ -751,37 +751,37 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.3261974352488083</v>
+        <v>0.3129884904169193</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2889995167940074</v>
+        <v>0.2738584523090469</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.301027779115046</v>
+        <v>0.2995947954321904</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1656999385369956</v>
+        <v>0.1571369949162498</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3557066759153735</v>
+        <v>0.3446725887359907</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2140408879873902</v>
+        <v>0.1960176681453983</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.380952444273139</v>
+        <v>0.3864919239206473</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1199637663120607</v>
+        <v>0.1136461191306062</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.298355143188253</v>
+        <v>0.3018397115036047</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.170104127663655</v>
+        <v>0.1838157884630102</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3418470512143333</v>
+        <v>0.3312824619649151</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.05313861551339568</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2561194615066554</v>
+        <v>0.2561194615066553</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.09984629762997982</v>
@@ -845,31 +845,31 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1470206583934452</v>
+        <v>0.1569106601516917</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1122736013692054</v>
+        <v>0.110902756526465</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02882937513753362</v>
+        <v>0.02793298920534507</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1957288934566004</v>
+        <v>0.1966443281577009</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07905962579383717</v>
+        <v>0.07529986894836775</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03649800118875653</v>
+        <v>0.03518739673561033</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2016787936483809</v>
+        <v>0.2008869772023727</v>
       </c>
     </row>
     <row r="9">
@@ -882,34 +882,34 @@
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.315882350137742</v>
+        <v>0.2226502108570535</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3729165633338581</v>
+        <v>0.3832259037712875</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3148748438997158</v>
+        <v>0.3473557439471925</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2977915949392214</v>
+        <v>0.2874299954892685</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2522650499424156</v>
+        <v>0.2452663372521573</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3260006169811649</v>
+        <v>0.3194836472766548</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1951938442318341</v>
+        <v>0.212405419336282</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.221854095659293</v>
+        <v>0.2239613582508095</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1995533209135383</v>
+        <v>0.2009491317491112</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3150893957695832</v>
+        <v>0.3099404929593644</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.03220682907233237</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2993220589466583</v>
+        <v>0.2993220589466584</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.04653582925042838</v>
@@ -969,35 +969,35 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.05297414745688326</v>
+        <v>0.05256659145419177</v>
       </c>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.1263083721736651</v>
+        <v>0.1377179621628097</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.10870755257107</v>
+        <v>0.1033554329735755</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2108287763836906</v>
+        <v>0.2055856975500547</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1210340158571498</v>
+        <v>0.1105731851052502</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2142524316945557</v>
+        <v>0.2130136389645858</v>
       </c>
     </row>
     <row r="12">
@@ -1009,35 +1009,35 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.4376036953881344</v>
+        <v>0.4363288584716831</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.4369872481227</v>
+        <v>0.454634676315243</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4515615237446061</v>
+        <v>0.4276208588717015</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.378086690472214</v>
+        <v>0.3698426124548332</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1600901081928435</v>
+        <v>0.1772633586127364</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3966035834108406</v>
+        <v>0.3967396958839468</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2326866126132604</v>
+        <v>0.2066892999166444</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3355768707889233</v>
+        <v>0.3357864642595645</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1138545798486038</v>
+        <v>0.1319807177247083</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3752201092782568</v>
+        <v>0.3765049704763291</v>
       </c>
     </row>
     <row r="13">
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2325906033806492</v>
+        <v>0.2325906033806491</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>0.0474482400869226</v>
+        <v>0.04930293226092122</v>
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="n">
@@ -1109,15 +1109,15 @@
       </c>
       <c r="I14" s="5" t="inlineStr"/>
       <c r="J14" s="5" t="n">
-        <v>0.148649788406889</v>
+        <v>0.1447289715586154</v>
       </c>
       <c r="K14" s="5" t="inlineStr"/>
       <c r="L14" s="5" t="n">
-        <v>0.03761249357068134</v>
+        <v>0.03861260979655937</v>
       </c>
       <c r="M14" s="5" t="inlineStr"/>
       <c r="N14" s="5" t="n">
-        <v>0.1433115231267541</v>
+        <v>0.1356170310052752</v>
       </c>
     </row>
     <row r="15">
@@ -1129,27 +1129,27 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.6676388375980375</v>
+        <v>0.7337474966310884</v>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.3137779801891961</v>
+        <v>0.3333548067843108</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.3393568283202011</v>
+        <v>0.3401049219965894</v>
       </c>
       <c r="I15" s="5" t="inlineStr"/>
       <c r="J15" s="5" t="n">
-        <v>0.3469586433644495</v>
+        <v>0.3339276780181032</v>
       </c>
       <c r="K15" s="5" t="inlineStr"/>
       <c r="L15" s="5" t="n">
-        <v>0.3093643645870216</v>
+        <v>0.3039345470762906</v>
       </c>
       <c r="M15" s="5" t="inlineStr"/>
       <c r="N15" s="5" t="n">
-        <v>0.2957737478176514</v>
+        <v>0.30025426289796</v>
       </c>
     </row>
     <row r="16">
@@ -1185,7 +1185,7 @@
         <v>0.06822508333099209</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2727116073589609</v>
+        <v>0.2727116073589608</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.04737550149936862</v>
@@ -1209,37 +1209,37 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.05646774935398383</v>
+        <v>0.04852351173616781</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01209264079955514</v>
+        <v>0.01153531993040454</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1562361538393017</v>
+        <v>0.1583329856122781</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02913677566845231</v>
+        <v>0.02470129775512431</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1464791037542363</v>
+        <v>0.1411855007934234</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03046753761294144</v>
+        <v>0.03172563227861283</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2314322409791228</v>
+        <v>0.2341690029156205</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0162723785069486</v>
+        <v>0.01672890669593508</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1318457216238796</v>
+        <v>0.1354174470454461</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.0371778632777083</v>
+        <v>0.0332071278612065</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2232124950006384</v>
+        <v>0.223983340776347</v>
       </c>
     </row>
     <row r="18">
@@ -1251,37 +1251,37 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.2129467556805692</v>
+        <v>0.2026088659511811</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1106043841703312</v>
+        <v>0.1121285916707586</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2869673537276235</v>
+        <v>0.2885784679655694</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1418291666283402</v>
+        <v>0.146609262466328</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2655255322404802</v>
+        <v>0.2626032276633399</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.121036056104521</v>
+        <v>0.1233894941086944</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3113544457847743</v>
+        <v>0.3145044078606343</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.09461360069999718</v>
+        <v>0.09689139558749159</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2274449312074183</v>
+        <v>0.2266292043912909</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1021049518314785</v>
+        <v>0.1036858616887035</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2919777100522749</v>
+        <v>0.2897357422373411</v>
       </c>
     </row>
     <row r="19">
@@ -1553,37 +1553,37 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>1135</v>
+        <v>1124</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1551</v>
+        <v>1604</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>949</v>
+        <v>898</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>10345</v>
+        <v>9847</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1403</v>
+        <v>1666</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>16451</v>
+        <v>16562</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>12112</v>
+        <v>12913</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3530</v>
+        <v>3622</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>19644</v>
+        <v>19338</v>
       </c>
     </row>
     <row r="7">
@@ -1595,37 +1595,37 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>8343</v>
+        <v>8005</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6939</v>
+        <v>6575</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7501</v>
+        <v>7465</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8102</v>
+        <v>7683</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>24517</v>
+        <v>23756</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>14023</v>
+        <v>12842</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>27460</v>
+        <v>27859</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>8535</v>
+        <v>8085</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>28195</v>
+        <v>28524</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>15228</v>
+        <v>16456</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>33159</v>
+        <v>32134</v>
       </c>
     </row>
     <row r="8">
@@ -1733,31 +1733,31 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5651</v>
+        <v>6031</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>8590</v>
+        <v>8485</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1237</v>
+        <v>1199</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>19715</v>
+        <v>19807</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>8090</v>
+        <v>7705</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2225</v>
+        <v>2145</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>28066</v>
+        <v>27956</v>
       </c>
     </row>
     <row r="11">
@@ -1770,34 +1770,34 @@
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>5701</v>
+        <v>4018</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>14334</v>
+        <v>14730</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>7361</v>
+        <v>8121</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>22784</v>
+        <v>21991</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>10828</v>
+        <v>10528</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>32837</v>
+        <v>32181</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>7315</v>
+        <v>7960</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>22702</v>
+        <v>22917</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>12167</v>
+        <v>12252</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>43849</v>
+        <v>43133</v>
       </c>
     </row>
     <row r="12">
@@ -1901,35 +1901,35 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>2924</v>
+        <v>3189</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4249</v>
+        <v>4040</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>12160</v>
+        <v>11857</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>7240</v>
+        <v>6614</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>17318</v>
+        <v>17218</v>
       </c>
     </row>
     <row r="15">
@@ -1941,35 +1941,35 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>9073</v>
+        <v>9046</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>10118</v>
+        <v>10526</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6080</v>
+        <v>5758</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14778</v>
+        <v>14455</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6640</v>
+        <v>7352</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>22875</v>
+        <v>22882</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5297</v>
+        <v>4705</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>20074</v>
+        <v>20086</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>6229</v>
+        <v>7220</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>30329</v>
+        <v>30433</v>
       </c>
     </row>
     <row r="16">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>1047</v>
+        <v>1088</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
@@ -2085,15 +2085,15 @@
       </c>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>6155</v>
+        <v>5993</v>
       </c>
       <c r="K18" s="6" t="inlineStr"/>
       <c r="L18" s="6" t="n">
-        <v>978</v>
+        <v>1004</v>
       </c>
       <c r="M18" s="6" t="inlineStr"/>
       <c r="N18" s="6" t="n">
-        <v>9097</v>
+        <v>8609</v>
       </c>
     </row>
     <row r="19">
@@ -2105,27 +2105,27 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>4258</v>
+        <v>4680</v>
       </c>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>6925</v>
+        <v>7357</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>6657</v>
+        <v>6672</v>
       </c>
       <c r="I19" s="6" t="inlineStr"/>
       <c r="J19" s="6" t="n">
-        <v>14367</v>
+        <v>13828</v>
       </c>
       <c r="K19" s="6" t="inlineStr"/>
       <c r="L19" s="6" t="n">
-        <v>8042</v>
+        <v>7901</v>
       </c>
       <c r="M19" s="6" t="inlineStr"/>
       <c r="N19" s="6" t="n">
-        <v>18775</v>
+        <v>19059</v>
       </c>
     </row>
     <row r="20">
@@ -2229,37 +2229,37 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>4433</v>
+        <v>3809</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>862</v>
+        <v>822</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>16963</v>
+        <v>17191</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2658</v>
+        <v>2254</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>29902</v>
+        <v>28821</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5199</v>
+        <v>5414</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>62925</v>
+        <v>63669</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2241</v>
+        <v>2304</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>37265</v>
+        <v>38275</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>8995</v>
+        <v>8035</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>84926</v>
+        <v>85219</v>
       </c>
     </row>
     <row r="23">
@@ -2271,37 +2271,37 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>16717</v>
+        <v>15906</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7886</v>
+        <v>7994</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>31158</v>
+        <v>31333</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>12940</v>
+        <v>13376</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>54203</v>
+        <v>53607</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>20656</v>
+        <v>21057</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>84655</v>
+        <v>85512</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>13029</v>
+        <v>13342</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>64285</v>
+        <v>64055</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>24705</v>
+        <v>25087</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>111089</v>
+        <v>110236</v>
       </c>
     </row>
     <row r="24">
